--- a/Kalangala_LEWIE_SimDashboard.xlsx
+++ b/Kalangala_LEWIE_SimDashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19430" windowHeight="11030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Sims" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Type</t>
   </si>
@@ -49,9 +49,6 @@
     <t>sim1</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
     <t>Land</t>
   </si>
   <si>
@@ -91,15 +88,9 @@
     <t>sim8</t>
   </si>
   <si>
-    <t>AqFBg</t>
-  </si>
-  <si>
     <t xml:space="preserve">sim2 </t>
   </si>
   <si>
-    <t>Crop</t>
-  </si>
-  <si>
     <t>sim9</t>
   </si>
   <si>
@@ -133,13 +124,10 @@
     <t>sim19</t>
   </si>
   <si>
-    <t>sim20</t>
-  </si>
-  <si>
-    <t>sim21</t>
-  </si>
-  <si>
     <t>palmoil</t>
+  </si>
+  <si>
+    <t>Oplocal</t>
   </si>
 </sst>
 </file>
@@ -189,11 +177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,9 +470,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +487,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -509,22 +498,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -532,42 +521,42 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -583,416 +572,378 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="5" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="5" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F4">
-        <f>2*0.7</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <f>2*0.7</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <f>2*0.8</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <f>2*0.9</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="F12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="F14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="F15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="F17">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F18">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
         <v>33</v>
       </c>
-      <c r="F19">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
       <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23">
-        <v>1.91923076923077</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24">
-        <v>2.0208791208791199</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Kalangala_LEWIE_SimDashboard.xlsx
+++ b/Kalangala_LEWIE_SimDashboard.xlsx
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,7 +632,7 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">

--- a/Kalangala_LEWIE_SimDashboard.xlsx
+++ b/Kalangala_LEWIE_SimDashboard.xlsx
@@ -147,9 +147,6 @@
     <t>This box defines how many sims we want to run simultaneously (max=10)</t>
   </si>
   <si>
-    <t xml:space="preserve">These parameters define the shocks we want to apply in a given sim. </t>
-  </si>
-  <si>
     <t>pzSim</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Max possible number of Simulations is 10.  You can rename simulations for convenience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These parameters define the shocks we want to apply in a given sim (will get run if sim is activated, ignored if not). </t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,18 +812,18 @@
     </row>
     <row r="3" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
